--- a/dados/csv/2023/analise_descritiva/dados/sint_resumo_por_mencoes_midia_independente_2023.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/sint_resumo_por_mencoes_midia_independente_2023.xlsx
@@ -34,7 +34,7 @@
     <t>taxa_sucesso</t>
   </si>
   <si>
-    <t>valor_sucesso</t>
+    <t>arrecadado_sucesso</t>
   </si>
   <si>
     <t>media_sucesso</t>

--- a/dados/csv/2023/analise_descritiva/dados/sint_resumo_por_mencoes_midia_independente_2023.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/sint_resumo_por_mencoes_midia_independente_2023.xlsx
@@ -483,10 +483,10 @@
         <v>733</v>
       </c>
       <c r="E2" s="1">
-        <v>0.8951310861423221</v>
+        <v>89.51310861423221</v>
       </c>
       <c r="F2" s="1">
-        <v>0.6133891213389121</v>
+        <v>61.33891213389121</v>
       </c>
       <c r="G2" s="2">
         <v>19844396.72743092</v>
@@ -518,10 +518,10 @@
         <v>97</v>
       </c>
       <c r="E3" s="1">
-        <v>0.1048689138576779</v>
+        <v>10.48689138576779</v>
       </c>
       <c r="F3" s="1">
-        <v>0.6928571428571428</v>
+        <v>69.28571428571428</v>
       </c>
       <c r="G3" s="2">
         <v>4218883.099892105</v>
@@ -553,10 +553,10 @@
         <v>1283</v>
       </c>
       <c r="E4" s="1">
-        <v>0.9284741144414169</v>
+        <v>92.8474114441417</v>
       </c>
       <c r="F4" s="1">
-        <v>0.9413059427732942</v>
+        <v>94.13059427732942</v>
       </c>
       <c r="G4" s="2">
         <v>16638713.83356185</v>
@@ -588,10 +588,10 @@
         <v>100</v>
       </c>
       <c r="E5" s="1">
-        <v>0.07152588555858311</v>
+        <v>7.152588555858311</v>
       </c>
       <c r="F5" s="1">
-        <v>0.9523809523809523</v>
+        <v>95.23809523809523</v>
       </c>
       <c r="G5" s="2">
         <v>1723418.10399725</v>
@@ -623,10 +623,10 @@
         <v>134</v>
       </c>
       <c r="E6" s="1">
-        <v>0.8874269005847953</v>
+        <v>88.74269005847954</v>
       </c>
       <c r="F6" s="1">
-        <v>0.2207578253706755</v>
+        <v>22.07578253706755</v>
       </c>
       <c r="G6" s="2">
         <v>34891.86036481448</v>
@@ -658,10 +658,10 @@
         <v>18</v>
       </c>
       <c r="E7" s="1">
-        <v>0.1125730994152047</v>
+        <v>11.25730994152047</v>
       </c>
       <c r="F7" s="1">
-        <v>0.2337662337662338</v>
+        <v>23.37662337662337</v>
       </c>
       <c r="G7" s="2">
         <v>8295.097389970326</v>

--- a/dados/csv/2023/analise_descritiva/dados/sint_resumo_por_mencoes_midia_independente_2023.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/sint_resumo_por_mencoes_midia_independente_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>geral_modalidade</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>max_sucesso</t>
+  </si>
+  <si>
+    <t>apoio_medio</t>
+  </si>
+  <si>
+    <t>contribuicoes</t>
+  </si>
+  <si>
+    <t>media_contribuicoes</t>
   </si>
   <si>
     <t>aon</t>
@@ -419,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,7 +443,7 @@
     <col min="11" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -468,10 +477,19 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -503,10 +521,19 @@
       <c r="K2" s="2">
         <v>679297.6600721752</v>
       </c>
+      <c r="L2">
+        <v>88.07870613099213</v>
+      </c>
+      <c r="M2">
+        <v>225303</v>
+      </c>
+      <c r="N2">
+        <v>307.3710777626194</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -538,10 +565,19 @@
       <c r="K3" s="2">
         <v>264585.9073482947</v>
       </c>
+      <c r="L3">
+        <v>110.2975973828001</v>
+      </c>
+      <c r="M3">
+        <v>38250</v>
+      </c>
+      <c r="N3">
+        <v>394.3298969072165</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -573,10 +609,19 @@
       <c r="K4" s="2">
         <v>708972.7845446636</v>
       </c>
+      <c r="L4">
+        <v>88.66083985762999</v>
+      </c>
+      <c r="M4">
+        <v>187667</v>
+      </c>
+      <c r="N4">
+        <v>146.2720187061574</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -608,10 +653,19 @@
       <c r="K5" s="2">
         <v>133783.3671983447</v>
       </c>
+      <c r="L5">
+        <v>107.8551914385913</v>
+      </c>
+      <c r="M5">
+        <v>15979</v>
+      </c>
+      <c r="N5">
+        <v>159.79</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -643,10 +697,19 @@
       <c r="K6" s="2">
         <v>3475.049171548047</v>
       </c>
+      <c r="L6">
+        <v>17.98549503340952</v>
+      </c>
+      <c r="M6">
+        <v>1940</v>
+      </c>
+      <c r="N6">
+        <v>14.47761194029851</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -677,6 +740,15 @@
       </c>
       <c r="K7" s="2">
         <v>5087.076865717208</v>
+      </c>
+      <c r="L7">
+        <v>30.9518559327251</v>
+      </c>
+      <c r="M7">
+        <v>268</v>
+      </c>
+      <c r="N7">
+        <v>14.88888888888889</v>
       </c>
     </row>
   </sheetData>
